--- a/ke hoach thuc hien do an.xlsx
+++ b/ke hoach thuc hien do an.xlsx
@@ -231,7 +231,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -719,6 +719,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -731,25 +740,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3033,11 +3033,11 @@
   <dimension ref="B2:DL37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3052,22 +3052,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:116" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="2:116" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="6" t="s">
         <v>0</v>
       </c>
@@ -3092,12 +3092,12 @@
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="2:116" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="W4" s="12"/>
       <c r="X4" s="21" t="s">
         <v>37</v>
@@ -3173,8 +3173,8 @@
       <c r="B7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -3190,22 +3190,22 @@
       <c r="AV8" s="1"/>
     </row>
     <row r="9" spans="2:116" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="52" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4"/>
@@ -3216,12 +3216,12 @@
       <c r="AV9" s="1"/>
     </row>
     <row r="10" spans="2:116" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="49"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
         <v>7</v>
@@ -3530,16 +3530,16 @@
         <v>39</v>
       </c>
       <c r="C12" s="39">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D12" s="14">
         <v>4</v>
       </c>
       <c r="E12" s="39">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F12" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="40">
         <v>1</v>
@@ -4404,14 +4404,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4419,10 +4419,10 @@
         <v>25</v>
       </c>
       <c r="B2" s="24"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -4430,12 +4430,12 @@
         <v>26</v>
       </c>
       <c r="B3" s="24"/>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -4443,7 +4443,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="31"/>
-      <c r="C4" s="57">
+      <c r="C4" s="50">
         <v>43120</v>
       </c>
       <c r="D4" s="31"/>
@@ -4484,8 +4484,8 @@
         <f>B6+6</f>
         <v>43126</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="55"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="36"/>
       <c r="G6" s="34"/>
     </row>
